--- a/Data_frame/balancos_definitivos/ORVR3.xlsx
+++ b/Data_frame/balancos_definitivos/ORVR3.xlsx
@@ -566,28 +566,28 @@
         <v>924473.024</v>
       </c>
       <c r="J2" t="n">
-        <v>2485139.968</v>
+        <v>1206062.976</v>
       </c>
       <c r="K2" t="n">
-        <v>2250700.032</v>
+        <v>1218866.048</v>
       </c>
       <c r="L2" t="n">
-        <v>2278188.032</v>
+        <v>1654061.056</v>
       </c>
       <c r="M2" t="n">
-        <v>2240400.896</v>
+        <v>1689874.944</v>
       </c>
       <c r="N2" t="n">
-        <v>2274211.072</v>
+        <v>2073296</v>
       </c>
       <c r="O2" t="n">
-        <v>2262320.896</v>
+        <v>2044536.96</v>
       </c>
       <c r="P2" t="n">
-        <v>2352293.888</v>
+        <v>2099356.032</v>
       </c>
       <c r="Q2" t="n">
-        <v>2421071.872</v>
+        <v>2239120.896</v>
       </c>
       <c r="R2" t="n">
         <v>2262343.936</v>
@@ -630,28 +630,28 @@
         <v>370820.992</v>
       </c>
       <c r="J3" t="n">
-        <v>824420.992</v>
+        <v>603148.992</v>
       </c>
       <c r="K3" t="n">
-        <v>650460.032</v>
+        <v>482519.008</v>
       </c>
       <c r="L3" t="n">
-        <v>524175.008</v>
+        <v>362220.992</v>
       </c>
       <c r="M3" t="n">
-        <v>465633.984</v>
+        <v>375080</v>
       </c>
       <c r="N3" t="n">
-        <v>524503.008</v>
+        <v>580211.008</v>
       </c>
       <c r="O3" t="n">
-        <v>554814.976</v>
+        <v>525180</v>
       </c>
       <c r="P3" t="n">
-        <v>671966.0159999999</v>
+        <v>519927.008</v>
       </c>
       <c r="Q3" t="n">
-        <v>720860.032</v>
+        <v>606044.992</v>
       </c>
       <c r="R3" t="n">
         <v>592636.032</v>
@@ -694,28 +694,28 @@
         <v>5345</v>
       </c>
       <c r="J4" t="n">
-        <v>491332</v>
+        <v>2917</v>
       </c>
       <c r="K4" t="n">
-        <v>340220</v>
+        <v>9612</v>
       </c>
       <c r="L4" t="n">
-        <v>231382</v>
+        <v>24265</v>
       </c>
       <c r="M4" t="n">
-        <v>74515</v>
+        <v>27289</v>
       </c>
       <c r="N4" t="n">
-        <v>84251</v>
+        <v>168875.008</v>
       </c>
       <c r="O4" t="n">
-        <v>125658</v>
+        <v>117986</v>
       </c>
       <c r="P4" t="n">
-        <v>82672</v>
+        <v>134756.992</v>
       </c>
       <c r="Q4" t="n">
-        <v>207770</v>
+        <v>200796.992</v>
       </c>
       <c r="R4" t="n">
         <v>289425.984</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49471</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>27486</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>71869</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>52445</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>70256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>54668</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -822,28 +822,28 @@
         <v>131016</v>
       </c>
       <c r="J6" t="n">
-        <v>202364</v>
+        <v>163362</v>
       </c>
       <c r="K6" t="n">
-        <v>213263.008</v>
+        <v>166672.992</v>
       </c>
       <c r="L6" t="n">
-        <v>173516.992</v>
+        <v>249356</v>
       </c>
       <c r="M6" t="n">
-        <v>250168.992</v>
+        <v>284134.016</v>
       </c>
       <c r="N6" t="n">
-        <v>257155.008</v>
+        <v>258896.992</v>
       </c>
       <c r="O6" t="n">
-        <v>250192.992</v>
+        <v>242768.992</v>
       </c>
       <c r="P6" t="n">
-        <v>282816</v>
+        <v>216240</v>
       </c>
       <c r="Q6" t="n">
-        <v>353380.992</v>
+        <v>236504.992</v>
       </c>
       <c r="R6" t="n">
         <v>184168</v>
@@ -886,28 +886,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5776</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5672</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>11879</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>7535</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6682</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7712</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5870</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7121</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>17947</v>
       </c>
       <c r="J9" t="n">
-        <v>48346</v>
+        <v>7136</v>
       </c>
       <c r="K9" t="n">
-        <v>60755</v>
+        <v>11111</v>
       </c>
       <c r="L9" t="n">
-        <v>74885</v>
+        <v>11562</v>
       </c>
       <c r="M9" t="n">
-        <v>74215</v>
+        <v>11519</v>
       </c>
       <c r="N9" t="n">
-        <v>73241</v>
+        <v>13907</v>
       </c>
       <c r="O9" t="n">
-        <v>90750</v>
+        <v>22276</v>
       </c>
       <c r="P9" t="n">
-        <v>91130</v>
+        <v>26090</v>
       </c>
       <c r="Q9" t="n">
-        <v>62813</v>
+        <v>33197</v>
       </c>
       <c r="R9" t="n">
         <v>30042</v>
@@ -1078,25 +1078,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12716</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15341</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>12929</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>16486</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13018</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>15904</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1142,28 +1142,28 @@
         <v>216512.992</v>
       </c>
       <c r="J11" t="n">
-        <v>14416</v>
+        <v>429734.016</v>
       </c>
       <c r="K11" t="n">
-        <v>15209</v>
+        <v>295123.008</v>
       </c>
       <c r="L11" t="n">
-        <v>32512</v>
+        <v>77038</v>
       </c>
       <c r="M11" t="n">
-        <v>18785</v>
+        <v>52138</v>
       </c>
       <c r="N11" t="n">
-        <v>14819</v>
+        <v>138532</v>
       </c>
       <c r="O11" t="n">
-        <v>15039</v>
+        <v>142148.992</v>
       </c>
       <c r="P11" t="n">
-        <v>123318</v>
+        <v>142840</v>
       </c>
       <c r="Q11" t="n">
-        <v>35107</v>
+        <v>135546</v>
       </c>
       <c r="R11" t="n">
         <v>89000</v>
@@ -1206,28 +1206,28 @@
         <v>148356.992</v>
       </c>
       <c r="J12" t="n">
-        <v>191468.992</v>
+        <v>113052</v>
       </c>
       <c r="K12" t="n">
-        <v>182564.992</v>
+        <v>111778</v>
       </c>
       <c r="L12" t="n">
-        <v>200528</v>
+        <v>97089</v>
       </c>
       <c r="M12" t="n">
-        <v>188368</v>
+        <v>101687</v>
       </c>
       <c r="N12" t="n">
-        <v>213976.992</v>
+        <v>95742</v>
       </c>
       <c r="O12" t="n">
-        <v>207447.008</v>
+        <v>107268</v>
       </c>
       <c r="P12" t="n">
-        <v>218768.992</v>
+        <v>99147</v>
       </c>
       <c r="Q12" t="n">
-        <v>223180</v>
+        <v>105792</v>
       </c>
       <c r="R12" t="n">
         <v>143444</v>
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>21241</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21673</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22548</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7916</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>7923</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7495</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>7355</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7482</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>24225</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>23701</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>25372</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>14660</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>14660</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>14660</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>10760</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>13317</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>14963</v>
       </c>
       <c r="R16" t="n">
         <v>48572</v>
@@ -1654,28 +1654,28 @@
         <v>79154</v>
       </c>
       <c r="J19" t="n">
-        <v>142016</v>
+        <v>69563</v>
       </c>
       <c r="K19" t="n">
-        <v>129581</v>
+        <v>69511</v>
       </c>
       <c r="L19" t="n">
-        <v>144188.992</v>
+        <v>62675</v>
       </c>
       <c r="M19" t="n">
-        <v>144083.008</v>
+        <v>60560</v>
       </c>
       <c r="N19" t="n">
-        <v>169524.992</v>
+        <v>53090</v>
       </c>
       <c r="O19" t="n">
-        <v>157902</v>
+        <v>62972</v>
       </c>
       <c r="P19" t="n">
-        <v>163674</v>
+        <v>63540</v>
       </c>
       <c r="Q19" t="n">
-        <v>167584</v>
+        <v>64128</v>
       </c>
       <c r="R19" t="n">
         <v>76287</v>
@@ -1782,28 +1782,28 @@
         <v>1314</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7015</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3771</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4399</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8969</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>7866</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>8710</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>9944</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>11508</v>
       </c>
       <c r="R21" t="n">
         <v>3006</v>
@@ -1846,28 +1846,28 @@
         <v>1623</v>
       </c>
       <c r="J22" t="n">
-        <v>5727</v>
+        <v>4422</v>
       </c>
       <c r="K22" t="n">
-        <v>6028</v>
+        <v>15439</v>
       </c>
       <c r="L22" t="n">
-        <v>7630</v>
+        <v>30919</v>
       </c>
       <c r="M22" t="n">
-        <v>4010</v>
+        <v>39860</v>
       </c>
       <c r="N22" t="n">
-        <v>6097</v>
+        <v>44084</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>47169</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>79300</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>77972</v>
       </c>
       <c r="R22" t="n">
         <v>98957</v>
@@ -1910,28 +1910,28 @@
         <v>310592</v>
       </c>
       <c r="J23" t="n">
-        <v>1446701.056</v>
+        <v>394599.008</v>
       </c>
       <c r="K23" t="n">
-        <v>1396387.968</v>
+        <v>456662.016</v>
       </c>
       <c r="L23" t="n">
-        <v>1531495.936</v>
+        <v>775206.976</v>
       </c>
       <c r="M23" t="n">
-        <v>1568630.016</v>
+        <v>789820.032</v>
       </c>
       <c r="N23" t="n">
-        <v>1519238.016</v>
+        <v>827737.024</v>
       </c>
       <c r="O23" t="n">
-        <v>1487021.056</v>
+        <v>852038.976</v>
       </c>
       <c r="P23" t="n">
-        <v>1448365.056</v>
+        <v>889468.032</v>
       </c>
       <c r="Q23" t="n">
-        <v>1462849.024</v>
+        <v>943867.008</v>
       </c>
       <c r="R23" t="n">
         <v>961436.992</v>
@@ -1974,28 +1974,28 @@
         <v>93080</v>
       </c>
       <c r="J24" t="n">
-        <v>16822</v>
+        <v>90841</v>
       </c>
       <c r="K24" t="n">
-        <v>15259</v>
+        <v>152468</v>
       </c>
       <c r="L24" t="n">
-        <v>14359</v>
+        <v>388624.992</v>
       </c>
       <c r="M24" t="n">
-        <v>13759</v>
+        <v>383428</v>
       </c>
       <c r="N24" t="n">
-        <v>10396</v>
+        <v>525521.9840000001</v>
       </c>
       <c r="O24" t="n">
-        <v>13038</v>
+        <v>512880.992</v>
       </c>
       <c r="P24" t="n">
-        <v>13194</v>
+        <v>511513.984</v>
       </c>
       <c r="Q24" t="n">
-        <v>14183</v>
+        <v>505444.992</v>
       </c>
       <c r="R24" t="n">
         <v>465870.016</v>
@@ -2102,28 +2102,28 @@
         <v>924473.024</v>
       </c>
       <c r="J26" t="n">
-        <v>2485139.968</v>
+        <v>1206062.976</v>
       </c>
       <c r="K26" t="n">
-        <v>2250700.032</v>
+        <v>1218866.048</v>
       </c>
       <c r="L26" t="n">
-        <v>2278188.032</v>
+        <v>1654061.056</v>
       </c>
       <c r="M26" t="n">
-        <v>2240400.896</v>
+        <v>1689874.944</v>
       </c>
       <c r="N26" t="n">
-        <v>2274211.072</v>
+        <v>2073296</v>
       </c>
       <c r="O26" t="n">
-        <v>2262320.896</v>
+        <v>2044536.96</v>
       </c>
       <c r="P26" t="n">
-        <v>2352293.888</v>
+        <v>2099356.032</v>
       </c>
       <c r="Q26" t="n">
-        <v>2421071.872</v>
+        <v>2239120.896</v>
       </c>
       <c r="R26" t="n">
         <v>2262343.936</v>
@@ -2166,28 +2166,28 @@
         <v>223610</v>
       </c>
       <c r="J27" t="n">
-        <v>374582.016</v>
+        <v>189088.992</v>
       </c>
       <c r="K27" t="n">
-        <v>397972.992</v>
+        <v>204083.008</v>
       </c>
       <c r="L27" t="n">
-        <v>451448.992</v>
+        <v>258967.008</v>
       </c>
       <c r="M27" t="n">
-        <v>581681.024</v>
+        <v>301103.008</v>
       </c>
       <c r="N27" t="n">
-        <v>647564.992</v>
+        <v>322881.984</v>
       </c>
       <c r="O27" t="n">
-        <v>723777.024</v>
+        <v>277420.992</v>
       </c>
       <c r="P27" t="n">
-        <v>807492.992</v>
+        <v>287464.992</v>
       </c>
       <c r="Q27" t="n">
-        <v>512900.992</v>
+        <v>273111.008</v>
       </c>
       <c r="R27" t="n">
         <v>258431.008</v>
@@ -2230,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57850</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>75108</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>72060</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>75949</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>60309</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>76299</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>93153</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>111950</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2294,28 +2294,28 @@
         <v>25454</v>
       </c>
       <c r="J29" t="n">
-        <v>114153</v>
+        <v>43810</v>
       </c>
       <c r="K29" t="n">
-        <v>83301</v>
+        <v>62081</v>
       </c>
       <c r="L29" t="n">
-        <v>87284</v>
+        <v>72522</v>
       </c>
       <c r="M29" t="n">
-        <v>88606</v>
+        <v>71976</v>
       </c>
       <c r="N29" t="n">
-        <v>91854</v>
+        <v>65821</v>
       </c>
       <c r="O29" t="n">
-        <v>65366</v>
+        <v>64489</v>
       </c>
       <c r="P29" t="n">
-        <v>101277</v>
+        <v>50980</v>
       </c>
       <c r="Q29" t="n">
-        <v>94154</v>
+        <v>51059</v>
       </c>
       <c r="R29" t="n">
         <v>59533</v>
@@ -2358,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25191</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>20390</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20694</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>22004</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>24627</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22649</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>49128</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>24740</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2422,28 +2422,28 @@
         <v>69326</v>
       </c>
       <c r="J31" t="n">
-        <v>163876.992</v>
+        <v>16844</v>
       </c>
       <c r="K31" t="n">
-        <v>196832.992</v>
+        <v>12728</v>
       </c>
       <c r="L31" t="n">
-        <v>249442</v>
+        <v>28581</v>
       </c>
       <c r="M31" t="n">
-        <v>372336.992</v>
+        <v>34899</v>
       </c>
       <c r="N31" t="n">
-        <v>448470.016</v>
+        <v>37616</v>
       </c>
       <c r="O31" t="n">
-        <v>519927.008</v>
+        <v>27958</v>
       </c>
       <c r="P31" t="n">
-        <v>521062.016</v>
+        <v>52088</v>
       </c>
       <c r="Q31" t="n">
-        <v>242272</v>
+        <v>46457</v>
       </c>
       <c r="R31" t="n">
         <v>45583</v>
@@ -2614,28 +2614,28 @@
         <v>128830</v>
       </c>
       <c r="J34" t="n">
-        <v>13511</v>
+        <v>128435</v>
       </c>
       <c r="K34" t="n">
-        <v>22341</v>
+        <v>129274</v>
       </c>
       <c r="L34" t="n">
-        <v>21969</v>
+        <v>157864</v>
       </c>
       <c r="M34" t="n">
-        <v>22785</v>
+        <v>194228</v>
       </c>
       <c r="N34" t="n">
-        <v>22305</v>
+        <v>219444.992</v>
       </c>
       <c r="O34" t="n">
-        <v>39536</v>
+        <v>184974</v>
       </c>
       <c r="P34" t="n">
-        <v>42873</v>
+        <v>184396.992</v>
       </c>
       <c r="Q34" t="n">
-        <v>39785</v>
+        <v>175595.008</v>
       </c>
       <c r="R34" t="n">
         <v>153315.008</v>
@@ -2806,28 +2806,28 @@
         <v>316419.008</v>
       </c>
       <c r="J37" t="n">
-        <v>1212573.056</v>
+        <v>647561.024</v>
       </c>
       <c r="K37" t="n">
-        <v>1078169.984</v>
+        <v>664744</v>
       </c>
       <c r="L37" t="n">
-        <v>1063678.016</v>
+        <v>943516.032</v>
       </c>
       <c r="M37" t="n">
-        <v>907657.024</v>
+        <v>958121.9840000001</v>
       </c>
       <c r="N37" t="n">
-        <v>862987.008</v>
+        <v>1168946.944</v>
       </c>
       <c r="O37" t="n">
-        <v>791846.0159999999</v>
+        <v>1185965.952</v>
       </c>
       <c r="P37" t="n">
-        <v>755470.976</v>
+        <v>1151728</v>
       </c>
       <c r="Q37" t="n">
-        <v>1113623.04</v>
+        <v>1301953.024</v>
       </c>
       <c r="R37" t="n">
         <v>1259320.064</v>
@@ -2870,28 +2870,28 @@
         <v>195312.992</v>
       </c>
       <c r="J38" t="n">
-        <v>1096764.032</v>
+        <v>539432</v>
       </c>
       <c r="K38" t="n">
-        <v>964433.9840000001</v>
+        <v>553411.008</v>
       </c>
       <c r="L38" t="n">
-        <v>943249.024</v>
+        <v>559964.992</v>
       </c>
       <c r="M38" t="n">
-        <v>793974.0159999999</v>
+        <v>574825.9840000001</v>
       </c>
       <c r="N38" t="n">
-        <v>740142.976</v>
+        <v>977537.9840000001</v>
       </c>
       <c r="O38" t="n">
-        <v>682248</v>
+        <v>990560</v>
       </c>
       <c r="P38" t="n">
-        <v>644716.032</v>
+        <v>955452.032</v>
       </c>
       <c r="Q38" t="n">
-        <v>999110.976</v>
+        <v>1098200.96</v>
       </c>
       <c r="R38" t="n">
         <v>1079805.952</v>
@@ -2934,28 +2934,28 @@
         <v>13655</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>11917</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>10678</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>21765</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>19055</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3619</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7034</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11118</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>34265</v>
       </c>
       <c r="R39" t="n">
         <v>20949</v>
@@ -2998,28 +2998,28 @@
         <v>64050</v>
       </c>
       <c r="J40" t="n">
-        <v>86874</v>
+        <v>62894</v>
       </c>
       <c r="K40" t="n">
-        <v>84264</v>
+        <v>65909</v>
       </c>
       <c r="L40" t="n">
-        <v>90857</v>
+        <v>333464</v>
       </c>
       <c r="M40" t="n">
-        <v>83755</v>
+        <v>341465.984</v>
       </c>
       <c r="N40" t="n">
-        <v>91354</v>
+        <v>162556.992</v>
       </c>
       <c r="O40" t="n">
-        <v>78227</v>
+        <v>163859.008</v>
       </c>
       <c r="P40" t="n">
-        <v>79780</v>
+        <v>165388.992</v>
       </c>
       <c r="Q40" t="n">
-        <v>75316</v>
+        <v>149972.992</v>
       </c>
       <c r="R40" t="n">
         <v>136930</v>
@@ -3062,28 +3062,28 @@
         <v>10877</v>
       </c>
       <c r="J41" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1402</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3190,28 +3190,28 @@
         <v>32524</v>
       </c>
       <c r="J43" t="n">
-        <v>28173</v>
+        <v>33318</v>
       </c>
       <c r="K43" t="n">
-        <v>28825</v>
+        <v>34746</v>
       </c>
       <c r="L43" t="n">
-        <v>28857</v>
+        <v>28322</v>
       </c>
       <c r="M43" t="n">
-        <v>29190</v>
+        <v>22775</v>
       </c>
       <c r="N43" t="n">
-        <v>30088</v>
+        <v>25233</v>
       </c>
       <c r="O43" t="n">
-        <v>30006</v>
+        <v>24513</v>
       </c>
       <c r="P43" t="n">
-        <v>29680</v>
+        <v>19769</v>
       </c>
       <c r="Q43" t="n">
-        <v>29950</v>
+        <v>19514</v>
       </c>
       <c r="R43" t="n">
         <v>21635</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -3382,28 +3382,28 @@
         <v>10144</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>13765</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14538</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>16188</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>17655</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>30976</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>43064</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>44495</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46538</v>
       </c>
       <c r="R46" t="n">
         <v>38588</v>
@@ -3446,28 +3446,28 @@
         <v>374300</v>
       </c>
       <c r="J47" t="n">
-        <v>897985.024</v>
+        <v>355647.992</v>
       </c>
       <c r="K47" t="n">
-        <v>774556.992</v>
+        <v>335501.008</v>
       </c>
       <c r="L47" t="n">
-        <v>763060.992</v>
+        <v>435389.984</v>
       </c>
       <c r="M47" t="n">
-        <v>751062.976</v>
+        <v>412994.984</v>
       </c>
       <c r="N47" t="n">
-        <v>763659.008</v>
+        <v>550491.008</v>
       </c>
       <c r="O47" t="n">
-        <v>746697.9840000001</v>
+        <v>538086.0159999999</v>
       </c>
       <c r="P47" t="n">
-        <v>789329.9840000001</v>
+        <v>615668.008</v>
       </c>
       <c r="Q47" t="n">
-        <v>794547.968</v>
+        <v>617519.024</v>
       </c>
       <c r="R47" t="n">
         <v>706005.024</v>
@@ -3510,28 +3510,28 @@
         <v>844323.008</v>
       </c>
       <c r="J48" t="n">
-        <v>803662.976</v>
+        <v>844323.008</v>
       </c>
       <c r="K48" t="n">
-        <v>803662.976</v>
+        <v>844323.008</v>
       </c>
       <c r="L48" t="n">
-        <v>803662.976</v>
+        <v>844323.008</v>
       </c>
       <c r="M48" t="n">
-        <v>803662.976</v>
+        <v>844323.008</v>
       </c>
       <c r="N48" t="n">
-        <v>803662.976</v>
+        <v>844323.008</v>
       </c>
       <c r="O48" t="n">
-        <v>803662.976</v>
+        <v>1000006.016</v>
       </c>
       <c r="P48" t="n">
-        <v>803662.976</v>
+        <v>1091127.04</v>
       </c>
       <c r="Q48" t="n">
-        <v>803662.976</v>
+        <v>1091127.04</v>
       </c>
       <c r="R48" t="n">
         <v>1091127.04</v>
@@ -3574,28 +3574,28 @@
         <v>268940.992</v>
       </c>
       <c r="J49" t="n">
-        <v>83589</v>
+        <v>268940.992</v>
       </c>
       <c r="K49" t="n">
-        <v>83589</v>
+        <v>268940.992</v>
       </c>
       <c r="L49" t="n">
-        <v>81336</v>
+        <v>268940.992</v>
       </c>
       <c r="M49" t="n">
-        <v>83589</v>
+        <v>268940.992</v>
       </c>
       <c r="N49" t="n">
-        <v>83589</v>
+        <v>269131.008</v>
       </c>
       <c r="O49" t="n">
-        <v>83589</v>
+        <v>461652</v>
       </c>
       <c r="P49" t="n">
-        <v>83589</v>
+        <v>453262.016</v>
       </c>
       <c r="Q49" t="n">
-        <v>83589</v>
+        <v>453262.016</v>
       </c>
       <c r="R49" t="n">
         <v>453262.016</v>
@@ -3702,28 +3702,28 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-2864</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-2558</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-1861</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-802</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -3766,28 +3766,28 @@
         <v>-721200</v>
       </c>
       <c r="J52" t="n">
-        <v>-49836</v>
+        <v>-739852.032</v>
       </c>
       <c r="K52" t="n">
-        <v>-59041</v>
+        <v>-759998.976</v>
       </c>
       <c r="L52" t="n">
-        <v>-135638</v>
+        <v>-771969.024</v>
       </c>
       <c r="M52" t="n">
-        <v>-171718</v>
+        <v>-803062.0159999999</v>
       </c>
       <c r="N52" t="n">
-        <v>-142811.008</v>
+        <v>-888857.9840000001</v>
       </c>
       <c r="O52" t="n">
-        <v>-148356.992</v>
+        <v>-933931.008</v>
       </c>
       <c r="P52" t="n">
-        <v>-76190</v>
+        <v>-939080</v>
       </c>
       <c r="Q52" t="n">
-        <v>-90115</v>
+        <v>-937228.992</v>
       </c>
       <c r="R52" t="n">
         <v>-848742.976</v>
@@ -3830,28 +3830,28 @@
         <v>-20787</v>
       </c>
       <c r="J53" t="n">
-        <v>63433</v>
+        <v>-20787</v>
       </c>
       <c r="K53" t="n">
-        <v>-51096</v>
+        <v>-20787</v>
       </c>
       <c r="L53" t="n">
-        <v>13700</v>
+        <v>-20787</v>
       </c>
       <c r="M53" t="n">
-        <v>37390</v>
+        <v>-20787</v>
       </c>
       <c r="N53" t="n">
-        <v>20020</v>
+        <v>10359</v>
       </c>
       <c r="O53" t="n">
-        <v>8153</v>
+        <v>10359</v>
       </c>
       <c r="P53" t="n">
-        <v>-21683</v>
+        <v>10359</v>
       </c>
       <c r="Q53" t="n">
-        <v>-3663</v>
+        <v>10359</v>
       </c>
       <c r="R53" t="n">
         <v>10359</v>
@@ -3958,19 +3958,19 @@
         <v>3023</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3023</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3023</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>114882</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>123580</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>315536</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4135,27 +4135,29 @@
       <c r="I59" t="n">
         <v>99841</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>155363.008</v>
+      </c>
       <c r="K59" t="n">
-        <v>283972.992</v>
+        <v>99226</v>
       </c>
       <c r="L59" t="n">
-        <v>246844.992</v>
+        <v>150612</v>
       </c>
       <c r="M59" t="n">
-        <v>309407.008</v>
+        <v>197176.992</v>
       </c>
       <c r="N59" t="n">
-        <v>360732.064</v>
+        <v>179209.008</v>
       </c>
       <c r="O59" t="n">
-        <v>334799.008</v>
+        <v>188844.992</v>
       </c>
       <c r="P59" t="n">
-        <v>399303.008</v>
+        <v>196244.992</v>
       </c>
       <c r="Q59" t="n">
-        <v>452228</v>
+        <v>192599.008</v>
       </c>
       <c r="R59" t="n">
         <v>198586.976</v>
@@ -4195,27 +4197,29 @@
       <c r="I60" t="n">
         <v>-61382</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>-76649.008</v>
+      </c>
       <c r="K60" t="n">
-        <v>-246184.992</v>
+        <v>-65213</v>
       </c>
       <c r="L60" t="n">
-        <v>-227704.992</v>
+        <v>-106498</v>
       </c>
       <c r="M60" t="n">
-        <v>-265678</v>
+        <v>-138595.008</v>
       </c>
       <c r="N60" t="n">
-        <v>-273830.976</v>
+        <v>-128022.984</v>
       </c>
       <c r="O60" t="n">
-        <v>-258628</v>
+        <v>-146571.008</v>
       </c>
       <c r="P60" t="n">
-        <v>-322488</v>
+        <v>-129705</v>
       </c>
       <c r="Q60" t="n">
-        <v>-341753.984</v>
+        <v>-120792</v>
       </c>
       <c r="R60" t="n">
         <v>-131531</v>
@@ -4255,27 +4259,29 @@
       <c r="I61" t="n">
         <v>38459</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>78713.992</v>
+      </c>
       <c r="K61" t="n">
-        <v>37788</v>
+        <v>34013</v>
       </c>
       <c r="L61" t="n">
-        <v>19140</v>
+        <v>44114</v>
       </c>
       <c r="M61" t="n">
-        <v>43729</v>
+        <v>58582</v>
       </c>
       <c r="N61" t="n">
-        <v>86901</v>
+        <v>51186.008</v>
       </c>
       <c r="O61" t="n">
-        <v>76171</v>
+        <v>42274</v>
       </c>
       <c r="P61" t="n">
-        <v>76815</v>
+        <v>66540</v>
       </c>
       <c r="Q61" t="n">
-        <v>110474</v>
+        <v>71807</v>
       </c>
       <c r="R61" t="n">
         <v>67055.992</v>
@@ -4315,7 +4321,9 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -4375,27 +4383,29 @@
       <c r="I63" t="n">
         <v>-21008</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>-15931</v>
+      </c>
       <c r="K63" t="n">
-        <v>-31378</v>
+        <v>-21221</v>
       </c>
       <c r="L63" t="n">
-        <v>-27932</v>
+        <v>-34838</v>
       </c>
       <c r="M63" t="n">
-        <v>-25813</v>
+        <v>-45656</v>
       </c>
       <c r="N63" t="n">
-        <v>-29715</v>
+        <v>-46705</v>
       </c>
       <c r="O63" t="n">
-        <v>-32526</v>
+        <v>-36163</v>
       </c>
       <c r="P63" t="n">
-        <v>-37733</v>
+        <v>-24601</v>
       </c>
       <c r="Q63" t="n">
-        <v>-44058</v>
+        <v>-30980</v>
       </c>
       <c r="R63" t="n">
         <v>-40979</v>
@@ -4435,7 +4445,9 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -4443,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>-4020</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-2540</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4495,27 +4507,29 @@
       <c r="I65" t="n">
         <v>2142</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>-5272</v>
+      </c>
       <c r="K65" t="n">
-        <v>1494</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>70</v>
+        <v>15694</v>
       </c>
       <c r="M65" t="n">
-        <v>259</v>
+        <v>-405</v>
       </c>
       <c r="N65" t="n">
-        <v>40</v>
+        <v>-4979</v>
       </c>
       <c r="O65" t="n">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>94660</v>
+        <v>-1013</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1896</v>
       </c>
       <c r="R65" t="n">
         <v>62823</v>
@@ -4555,27 +4569,29 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>932</v>
+      </c>
       <c r="K66" t="n">
-        <v>-7090</v>
+        <v>-899</v>
       </c>
       <c r="L66" t="n">
-        <v>-8305</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-8748</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-17382</v>
+        <v>899</v>
       </c>
       <c r="O66" t="n">
-        <v>-5408</v>
+        <v>2745</v>
       </c>
       <c r="P66" t="n">
-        <v>-8738</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>-11932</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>-2745</v>
@@ -4615,27 +4631,29 @@
       <c r="I67" t="n">
         <v>215</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>379</v>
+      </c>
       <c r="K67" t="n">
-        <v>301</v>
+        <v>-1</v>
       </c>
       <c r="L67" t="n">
-        <v>1602</v>
+        <v>-5637</v>
       </c>
       <c r="M67" t="n">
-        <v>643</v>
+        <v>9569</v>
       </c>
       <c r="N67" t="n">
-        <v>3631</v>
+        <v>3789</v>
       </c>
       <c r="O67" t="n">
-        <v>76</v>
+        <v>2973</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>3062</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1779</v>
       </c>
       <c r="R67" t="n">
         <v>3246</v>
@@ -4675,27 +4693,29 @@
       <c r="I68" t="n">
         <v>-14234</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>-51897</v>
+      </c>
       <c r="K68" t="n">
-        <v>5094</v>
+        <v>-27035</v>
       </c>
       <c r="L68" t="n">
-        <v>-73846</v>
+        <v>-10694</v>
       </c>
       <c r="M68" t="n">
-        <v>-41910</v>
+        <v>-36936</v>
       </c>
       <c r="N68" t="n">
-        <v>-39897.008</v>
+        <v>-79694.008</v>
       </c>
       <c r="O68" t="n">
-        <v>-35071</v>
+        <v>-47796</v>
       </c>
       <c r="P68" t="n">
-        <v>-28892</v>
+        <v>-36949</v>
       </c>
       <c r="Q68" t="n">
-        <v>-56927</v>
+        <v>-34485</v>
       </c>
       <c r="R68" t="n">
         <v>426</v>
@@ -4735,27 +4755,29 @@
       <c r="I69" t="n">
         <v>9664</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3268</v>
+      </c>
       <c r="K69" t="n">
-        <v>68806</v>
+        <v>14314</v>
       </c>
       <c r="L69" t="n">
-        <v>25032</v>
+        <v>58345</v>
       </c>
       <c r="M69" t="n">
-        <v>8960</v>
+        <v>531</v>
       </c>
       <c r="N69" t="n">
-        <v>5423</v>
+        <v>4031</v>
       </c>
       <c r="O69" t="n">
-        <v>22422</v>
+        <v>4578</v>
       </c>
       <c r="P69" t="n">
-        <v>30779</v>
+        <v>8653</v>
       </c>
       <c r="Q69" t="n">
-        <v>19948</v>
+        <v>11044</v>
       </c>
       <c r="R69" t="n">
         <v>56112</v>
@@ -4795,27 +4817,29 @@
       <c r="I70" t="n">
         <v>-23898</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>-55165</v>
+      </c>
       <c r="K70" t="n">
-        <v>-63713</v>
+        <v>-41349</v>
       </c>
       <c r="L70" t="n">
-        <v>-98878</v>
+        <v>-69039</v>
       </c>
       <c r="M70" t="n">
-        <v>-50870</v>
+        <v>-37467</v>
       </c>
       <c r="N70" t="n">
-        <v>-45319</v>
+        <v>-83725</v>
       </c>
       <c r="O70" t="n">
-        <v>-57493</v>
+        <v>-52374</v>
       </c>
       <c r="P70" t="n">
-        <v>-59671</v>
+        <v>-45602</v>
       </c>
       <c r="Q70" t="n">
-        <v>-76875</v>
+        <v>-45529</v>
       </c>
       <c r="R70" t="n">
         <v>-55686.008</v>
@@ -4933,27 +4957,29 @@
       <c r="I74" t="n">
         <v>5574</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6925</v>
+      </c>
       <c r="K74" t="n">
-        <v>6208</v>
+        <v>-15143</v>
       </c>
       <c r="L74" t="n">
-        <v>-89271</v>
+        <v>8639</v>
       </c>
       <c r="M74" t="n">
-        <v>-35860</v>
+        <v>-14846</v>
       </c>
       <c r="N74" t="n">
-        <v>1039</v>
+        <v>-75504</v>
       </c>
       <c r="O74" t="n">
-        <v>4258</v>
+        <v>-35967</v>
       </c>
       <c r="P74" t="n">
-        <v>96112</v>
+        <v>7039</v>
       </c>
       <c r="Q74" t="n">
-        <v>-2443</v>
+        <v>10017</v>
       </c>
       <c r="R74" t="n">
         <v>89827</v>
@@ -4993,27 +5019,29 @@
       <c r="I75" t="n">
         <v>-6137</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-23245</v>
+      </c>
       <c r="K75" t="n">
-        <v>-2877</v>
+        <v>-4179</v>
       </c>
       <c r="L75" t="n">
-        <v>693</v>
+        <v>-12123</v>
       </c>
       <c r="M75" t="n">
-        <v>-1518</v>
+        <v>-12666</v>
       </c>
       <c r="N75" t="n">
-        <v>-1533</v>
+        <v>-9723</v>
       </c>
       <c r="O75" t="n">
-        <v>-1747</v>
+        <v>-7814</v>
       </c>
       <c r="P75" t="n">
-        <v>-31186</v>
+        <v>-10457</v>
       </c>
       <c r="Q75" t="n">
-        <v>-10816</v>
+        <v>-6711</v>
       </c>
       <c r="R75" t="n">
         <v>-9683</v>
@@ -5053,27 +5081,29 @@
       <c r="I76" t="n">
         <v>-786</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1286</v>
+      </c>
       <c r="K76" t="n">
-        <v>-12536</v>
+        <v>-52</v>
       </c>
       <c r="L76" t="n">
-        <v>11981</v>
+        <v>-6836</v>
       </c>
       <c r="M76" t="n">
-        <v>1298</v>
+        <v>-2114</v>
       </c>
       <c r="N76" t="n">
-        <v>29401</v>
+        <v>1083</v>
       </c>
       <c r="O76" t="n">
-        <v>-8057</v>
+        <v>601</v>
       </c>
       <c r="P76" t="n">
-        <v>7241</v>
+        <v>567</v>
       </c>
       <c r="Q76" t="n">
-        <v>-666</v>
+        <v>588</v>
       </c>
       <c r="R76" t="n">
         <v>12160</v>
@@ -5165,27 +5195,29 @@
       <c r="I79" t="n">
         <v>-859</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>-3618</v>
+      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-773</v>
       </c>
       <c r="L79" t="n">
-        <v>76597</v>
+        <v>-1650</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>-3117</v>
       </c>
       <c r="N79" t="n">
-        <v>-76597</v>
+        <v>-2</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>-1893</v>
       </c>
       <c r="P79" t="n">
-        <v>-72167</v>
+        <v>-2298</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>-2043</v>
       </c>
       <c r="R79" t="n">
         <v>-3818</v>
@@ -5225,27 +5257,29 @@
       <c r="I80" t="n">
         <v>-2208</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>-18652</v>
+      </c>
       <c r="K80" t="n">
-        <v>-9205</v>
+        <v>-20147</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>-11970</v>
       </c>
       <c r="M80" t="n">
-        <v>-36080</v>
+        <v>-12386</v>
       </c>
       <c r="N80" t="n">
-        <v>-47690</v>
+        <v>-104503</v>
       </c>
       <c r="O80" t="n">
-        <v>-5546</v>
+        <v>-45073</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>-5149</v>
       </c>
       <c r="Q80" t="n">
-        <v>-13925</v>
+        <v>1851</v>
       </c>
       <c r="R80" t="n">
         <v>88486</v>
